--- a/compact_measurement/library_qualification_tolerances.xlsx
+++ b/compact_measurement/library_qualification_tolerances.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-12" yWindow="5196" windowWidth="25980" windowHeight="5232" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,168 +19,167 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="50">
-  <si>
-    <t xml:space="preserve">Compact_2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Messungen mit preamplifier_noise_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TABLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qualification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PythonFunction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MeasurementType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OutputLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Short</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UnitRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limit_min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">limit_max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINUS/PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FilterDA_DIRECT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FilterDA_OUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FALSE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUPPLY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FilterHV_OUT_DIR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FilterHV_OUT_FIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC soll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC_voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tolerance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qual_voltage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MINUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">increased due to 10 MOhm input resistance of HP34401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">typ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qual_flickernoise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vrms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flickernoise from preamplifier_noise_2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qual_band_LSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V/sqrt(Hz)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 Hz mains</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Step size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dt=0.1s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">above</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qual_step_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">todo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="50">
+  <si>
+    <t>Compact_2012</t>
+  </si>
+  <si>
+    <t>Messungen mit preamplifier_noise_2020</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>TABLE</t>
+  </si>
+  <si>
+    <t>Qualification</t>
+  </si>
+  <si>
+    <t>PythonFunction</t>
+  </si>
+  <si>
+    <t>MeasurementType</t>
+  </si>
+  <si>
+    <t>OutputLevel</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>UnitRange</t>
+  </si>
+  <si>
+    <t>limit_min</t>
+  </si>
+  <si>
+    <t>limit_max</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>MINUS/PLUS</t>
+  </si>
+  <si>
+    <t>FilterDA_DIRECT</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>HV</t>
+  </si>
+  <si>
+    <t>ZERO</t>
+  </si>
+  <si>
+    <t>FilterDA_OUT</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>SUPPLY</t>
+  </si>
+  <si>
+    <t>FilterHV_OUT_DIR</t>
+  </si>
+  <si>
+    <t>FilterHV_OUT_FIL</t>
+  </si>
+  <si>
+    <t>DC soll</t>
+  </si>
+  <si>
+    <t>DC_voltage</t>
+  </si>
+  <si>
+    <t>tolerance</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>qual_voltage</t>
+  </si>
+  <si>
+    <t>PLUS</t>
+  </si>
+  <si>
+    <t>MINUS</t>
+  </si>
+  <si>
+    <t>increased due to 10 MOhm input resistance of HP34401</t>
+  </si>
+  <si>
+    <t>typ</t>
+  </si>
+  <si>
+    <t>qual_flickernoise</t>
+  </si>
+  <si>
+    <t>Vrms</t>
+  </si>
+  <si>
+    <t>Flickernoise from preamplifier_noise_2020</t>
+  </si>
+  <si>
+    <t>qual_band_LSD</t>
+  </si>
+  <si>
+    <t>V/sqrt(Hz)</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>50 Hz mains</t>
+  </si>
+  <si>
+    <t>Step size</t>
+  </si>
+  <si>
+    <t>dt=0.1s</t>
+  </si>
+  <si>
+    <t>above</t>
+  </si>
+  <si>
+    <t>qual_step_size</t>
+  </si>
+  <si>
+    <t>1/s</t>
+  </si>
+  <si>
+    <t>todo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0.0E-0"/>
-    <numFmt numFmtId="166" formatCode="0.0000E-0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0E-0"/>
+    <numFmt numFmtId="165" formatCode="0.0000E-0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -189,33 +187,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF9999FF"/>
       <name val="Arial1"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial1"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -234,14 +215,14 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF9999FF"/>
       </left>
@@ -256,7 +237,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin">
         <color rgb="FF3366FF"/>
       </left>
@@ -272,143 +253,384 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="8">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Datatable-Left" xfId="20"/>
-    <cellStyle name="Datatable-Top" xfId="21"/>
+  <cellStyles count="3">
+    <cellStyle name="Datatable-Left" xfId="1"/>
+    <cellStyle name="Datatable-Top" xfId="2"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+  <a:themeElements>
+    <a:clrScheme name="Larissa">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Larissa">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Larissa">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1:B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.03"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="23.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="17.78"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="14" style="3" width="11.52"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="1"/>
+    <col min="9" max="9" width="23.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" style="3" customWidth="1"/>
+    <col min="14" max="16" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:17">
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -416,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:17" s="8" customFormat="1">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -469,7 +691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:17">
       <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
@@ -481,20 +703,20 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:17">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -504,20 +726,20 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:17">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -525,32 +747,32 @@
       </c>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:17">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:17">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:17">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -561,7 +783,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:17">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
@@ -569,7 +791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:17">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -577,12 +799,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:17">
       <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:17">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
@@ -595,32 +817,32 @@
       <c r="I13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3" t="n">
-        <v>1E-005</v>
-      </c>
-      <c r="M13" s="10" t="n">
-        <f aca="false">K13-L13</f>
-        <v>-1E-005</v>
-      </c>
-      <c r="N13" s="10" t="n">
-        <f aca="false">L13+K13</f>
-        <v>1E-005</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" ref="M13:M23" si="0">K13-L13</f>
+        <v>-1.0000000000000001E-5</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" ref="N13:N23" si="1">L13+K13</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -629,32 +851,32 @@
       <c r="I14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="n">
-        <v>3E-005</v>
-      </c>
-      <c r="M14" s="10" t="n">
-        <f aca="false">K14-L14</f>
-        <v>-3E-005</v>
-      </c>
-      <c r="N14" s="10" t="n">
-        <f aca="false">L14+K14</f>
-        <v>3E-005</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="0"/>
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="N14" s="10">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -663,26 +885,26 @@
       <c r="I15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="K15" s="2">
         <v>10</v>
       </c>
-      <c r="L15" s="3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="M15" s="10" t="n">
-        <f aca="false">K15-L15</f>
-        <v>9.995</v>
-      </c>
-      <c r="N15" s="10" t="n">
-        <f aca="false">L15+K15</f>
-        <v>10.005</v>
-      </c>
-    </row>
-    <row r="16" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" si="0"/>
+        <v>9.9949999999999992</v>
+      </c>
+      <c r="N15" s="10">
+        <f t="shared" si="1"/>
+        <v>10.005000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="11" customFormat="1">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="0"/>
+      <c r="B16"/>
       <c r="C16" s="9" t="s">
         <v>32</v>
       </c>
@@ -699,34 +921,34 @@
         <v>31</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="2" t="n">
+      <c r="K16" s="2">
         <v>-10</v>
       </c>
-      <c r="L16" s="3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="M16" s="10" t="n">
-        <f aca="false">K16-L16</f>
-        <v>-10.005</v>
-      </c>
-      <c r="N16" s="10" t="n">
-        <f aca="false">L16+K16</f>
-        <v>-9.995</v>
+      <c r="L16" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="0"/>
+        <v>-10.005000000000001</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" si="1"/>
+        <v>-9.9949999999999992</v>
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:17">
       <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>22</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -735,36 +957,36 @@
       <c r="I17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="n">
-        <f aca="false">10*L14</f>
-        <v>0.0003</v>
-      </c>
-      <c r="M17" s="10" t="n">
-        <f aca="false">K17-L17</f>
-        <v>-0.0003</v>
-      </c>
-      <c r="N17" s="10" t="n">
-        <f aca="false">L17+K17</f>
-        <v>0.0003</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
+        <f>10*L14</f>
+        <v>2E-3</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="0"/>
+        <v>-2E-3</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="1"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -773,27 +995,27 @@
       <c r="I18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="2" t="n">
+      <c r="K18" s="2">
         <v>100</v>
       </c>
-      <c r="L18" s="3" t="n">
-        <f aca="false">10*L15</f>
+      <c r="L18" s="3">
+        <f>10*L15</f>
         <v>0.05</v>
       </c>
-      <c r="M18" s="10" t="n">
-        <f aca="false">K18-L18</f>
+      <c r="M18" s="10">
+        <f t="shared" si="0"/>
         <v>99.95</v>
       </c>
-      <c r="N18" s="10" t="n">
-        <f aca="false">L18+K18</f>
+      <c r="N18" s="10">
+        <f t="shared" si="1"/>
         <v>100.05</v>
       </c>
     </row>
-    <row r="19" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:17" s="11" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="0"/>
+      <c r="B19"/>
       <c r="C19" s="9" t="s">
         <v>32</v>
       </c>
@@ -813,38 +1035,38 @@
         <v>31</v>
       </c>
       <c r="J19" s="1"/>
-      <c r="K19" s="2" t="n">
+      <c r="K19" s="2">
         <v>-100</v>
       </c>
-      <c r="L19" s="3" t="n">
-        <f aca="false">10*L16</f>
+      <c r="L19" s="3">
+        <f>10*L16</f>
         <v>0.05</v>
       </c>
-      <c r="M19" s="10" t="n">
-        <f aca="false">K19-L19</f>
+      <c r="M19" s="10">
+        <f t="shared" si="0"/>
         <v>-100.05</v>
       </c>
-      <c r="N19" s="10" t="n">
-        <f aca="false">L19+K19</f>
+      <c r="N19" s="10">
+        <f t="shared" si="1"/>
         <v>-99.95</v>
       </c>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:17">
       <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" t="s">
         <v>27</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -853,30 +1075,30 @@
       <c r="I20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="2" t="n">
+      <c r="K20" s="2">
         <v>100</v>
       </c>
-      <c r="L20" s="3" t="n">
-        <f aca="false">L19+100/10000000*4700</f>
-        <v>0.097</v>
-      </c>
-      <c r="M20" s="10" t="n">
-        <f aca="false">K20-L20</f>
-        <v>99.903</v>
-      </c>
-      <c r="N20" s="10" t="n">
-        <f aca="false">L20+K20</f>
-        <v>100.097</v>
-      </c>
-      <c r="Q20" s="0" t="s">
+      <c r="L20" s="3">
+        <f>L19+100/10000000*4700</f>
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" si="0"/>
+        <v>99.903000000000006</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" si="1"/>
+        <v>100.09699999999999</v>
+      </c>
+      <c r="Q20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:17" s="11" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="0"/>
+      <c r="B21"/>
       <c r="C21" s="9" t="s">
         <v>32</v>
       </c>
@@ -896,20 +1118,20 @@
         <v>31</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="2" t="n">
+      <c r="K21" s="2">
         <v>-100</v>
       </c>
-      <c r="L21" s="3" t="n">
-        <f aca="false">L20+100/10000000*4700</f>
-        <v>0.144</v>
-      </c>
-      <c r="M21" s="10" t="n">
-        <f aca="false">K21-L21</f>
-        <v>-100.144</v>
-      </c>
-      <c r="N21" s="10" t="n">
-        <f aca="false">L21+K21</f>
-        <v>-99.856</v>
+      <c r="L21" s="3">
+        <f>L20+100/10000000*4700</f>
+        <v>0.14400000000000002</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="0"/>
+        <v>-100.14400000000001</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="1"/>
+        <v>-99.855999999999995</v>
       </c>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -917,17 +1139,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:17">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>33</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -936,26 +1158,26 @@
       <c r="I22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K22" s="2" t="n">
+      <c r="K22" s="2">
         <v>14</v>
       </c>
-      <c r="L22" s="3" t="n">
+      <c r="L22" s="3">
         <v>0.35</v>
       </c>
-      <c r="M22" s="10" t="n">
-        <f aca="false">K22-L22</f>
+      <c r="M22" s="10">
+        <f t="shared" si="0"/>
         <v>13.65</v>
       </c>
-      <c r="N22" s="10" t="n">
-        <f aca="false">L22+K22</f>
+      <c r="N22" s="10">
+        <f t="shared" si="1"/>
         <v>14.35</v>
       </c>
     </row>
-    <row r="23" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:17" s="11" customFormat="1">
       <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="0"/>
+      <c r="B23"/>
       <c r="C23" s="9" t="s">
         <v>32</v>
       </c>
@@ -972,29 +1194,29 @@
         <v>31</v>
       </c>
       <c r="J23" s="1"/>
-      <c r="K23" s="2" t="n">
+      <c r="K23" s="2">
         <v>-14</v>
       </c>
-      <c r="L23" s="3" t="n">
+      <c r="L23" s="3">
         <v>0.35</v>
       </c>
-      <c r="M23" s="10" t="n">
-        <f aca="false">K23-L23</f>
+      <c r="M23" s="10">
+        <f t="shared" si="0"/>
         <v>-14.35</v>
       </c>
-      <c r="N23" s="10" t="n">
-        <f aca="false">L23+K23</f>
+      <c r="N23" s="10">
+        <f t="shared" si="1"/>
         <v>-13.65</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:17">
       <c r="A24" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:17">
       <c r="A25" s="5" t="s">
         <v>10</v>
       </c>
@@ -1002,7 +1224,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:17">
       <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
@@ -1015,30 +1237,30 @@
       <c r="I26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L26" s="3" t="n">
-        <v>3E-008</v>
-      </c>
-      <c r="M26" s="3" t="n">
-        <v>1.5E-008</v>
-      </c>
-      <c r="N26" s="3" t="n">
-        <v>1E-007</v>
-      </c>
-      <c r="Q26" s="0" t="s">
+      <c r="L26" s="3">
+        <v>2.9999999999999997E-8</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1.4999999999999999E-8</v>
+      </c>
+      <c r="N26" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="Q26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:17">
       <c r="A27" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>22</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -1047,29 +1269,29 @@
       <c r="I27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L27" s="3" t="n">
-        <v>5E-008</v>
-      </c>
-      <c r="M27" s="3" t="n">
-        <f aca="false">0.7*L27</f>
-        <v>3.5E-008</v>
-      </c>
-      <c r="N27" s="3" t="n">
-        <f aca="false">1.4*L27</f>
-        <v>7E-008</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L27" s="3">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="M27" s="3">
+        <f>0.7*L27</f>
+        <v>3.4999999999999996E-8</v>
+      </c>
+      <c r="N27" s="3">
+        <f>1.4*L27</f>
+        <v>6.9999999999999992E-8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -1078,29 +1300,29 @@
       <c r="I28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L28" s="3" t="n">
-        <v>1.5E-007</v>
-      </c>
-      <c r="M28" s="3" t="n">
-        <f aca="false">0.7*L28</f>
-        <v>1.05E-007</v>
-      </c>
-      <c r="N28" s="3" t="n">
-        <f aca="false">1.4*L28</f>
-        <v>2.1E-007</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L28" s="3">
+        <v>1.4999999999999999E-7</v>
+      </c>
+      <c r="M28" s="3">
+        <f>0.7*L28</f>
+        <v>1.0499999999999999E-7</v>
+      </c>
+      <c r="N28" s="3">
+        <f>1.4*L28</f>
+        <v>2.0999999999999997E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>22</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -1109,30 +1331,30 @@
       <c r="I29" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L29" s="3" t="n">
-        <f aca="false">10*L27</f>
-        <v>5E-007</v>
-      </c>
-      <c r="M29" s="3" t="n">
-        <f aca="false">0.7*L29</f>
-        <v>3.5E-007</v>
-      </c>
-      <c r="N29" s="3" t="n">
-        <f aca="false">1.4*L29</f>
-        <v>7E-007</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L29" s="3">
+        <f>10*L27</f>
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="M29" s="3">
+        <f>0.7*L29</f>
+        <v>3.4999999999999998E-7</v>
+      </c>
+      <c r="N29" s="3">
+        <f>1.4*L29</f>
+        <v>6.9999999999999997E-7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>18</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -1141,30 +1363,30 @@
       <c r="I30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L30" s="3" t="n">
-        <f aca="false">10*L28</f>
-        <v>1.5E-006</v>
-      </c>
-      <c r="M30" s="3" t="n">
-        <f aca="false">0.7*L30</f>
-        <v>1.05E-006</v>
-      </c>
-      <c r="N30" s="3" t="n">
-        <f aca="false">1.4*L30</f>
-        <v>2.1E-006</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L30" s="3">
+        <f>10*L28</f>
+        <v>1.5E-6</v>
+      </c>
+      <c r="M30" s="3">
+        <f>0.7*L30</f>
+        <v>1.0499999999999999E-6</v>
+      </c>
+      <c r="N30" s="3">
+        <f>1.4*L30</f>
+        <v>2.0999999999999998E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>18</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -1173,25 +1395,25 @@
       <c r="I31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L31" s="3" t="n">
-        <v>0.00016</v>
-      </c>
-      <c r="M31" s="3" t="n">
-        <f aca="false">L31/2</f>
-        <v>8E-005</v>
-      </c>
-      <c r="N31" s="3" t="n">
-        <f aca="false">2*L31</f>
-        <v>0.00032</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L31" s="3">
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="M31" s="3">
+        <f>L31/2</f>
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="N31" s="3">
+        <f>2*L31</f>
+        <v>3.2000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="L32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:17">
       <c r="A33" s="5" t="s">
         <v>3</v>
       </c>
@@ -1208,20 +1430,20 @@
         <v>42</v>
       </c>
       <c r="L33" s="2"/>
-      <c r="M33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3" t="n">
-        <v>7E-009</v>
-      </c>
-      <c r="O33" s="3" t="n">
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>6.9999999999999998E-9</v>
+      </c>
+      <c r="O33" s="3">
         <v>9.9</v>
       </c>
-      <c r="P33" s="3" t="n">
+      <c r="P33" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:17">
       <c r="A34" s="5" t="s">
         <v>3</v>
       </c>
@@ -1238,20 +1460,20 @@
         <v>42</v>
       </c>
       <c r="L34" s="2"/>
-      <c r="M34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="3" t="n">
-        <v>6E-009</v>
-      </c>
-      <c r="O34" s="3" t="n">
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>6E-9</v>
+      </c>
+      <c r="O34" s="3">
         <v>990</v>
       </c>
-      <c r="P34" s="3" t="n">
+      <c r="P34" s="3">
         <v>110000</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:17">
       <c r="A35" s="5" t="s">
         <v>3</v>
       </c>
@@ -1268,30 +1490,30 @@
         <v>42</v>
       </c>
       <c r="L35" s="2"/>
-      <c r="M35" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3" t="n">
-        <v>6E-007</v>
-      </c>
-      <c r="O35" s="3" t="n">
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="O35" s="3">
         <v>45</v>
       </c>
-      <c r="P35" s="3" t="n">
+      <c r="P35" s="3">
         <v>57</v>
       </c>
-      <c r="Q35" s="0" t="s">
+      <c r="Q35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:17">
       <c r="A36" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" t="s">
         <v>17</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -1304,30 +1526,30 @@
         <v>42</v>
       </c>
       <c r="L36" s="2"/>
-      <c r="M36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="3" t="n">
-        <v>1.5E-007</v>
-      </c>
-      <c r="O36" s="3" t="n">
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
+        <v>1.4999999999999999E-7</v>
+      </c>
+      <c r="O36" s="3">
         <v>9.9</v>
       </c>
-      <c r="P36" s="3" t="n">
+      <c r="P36" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:17">
       <c r="A37" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" t="s">
         <v>19</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -1340,30 +1562,30 @@
         <v>42</v>
       </c>
       <c r="L37" s="2"/>
-      <c r="M37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="3" t="n">
-        <v>1.2E-008</v>
-      </c>
-      <c r="O37" s="3" t="n">
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
+        <v>1.2E-8</v>
+      </c>
+      <c r="O37" s="3">
         <v>800</v>
       </c>
-      <c r="P37" s="3" t="n">
+      <c r="P37" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:17">
       <c r="A38" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" t="s">
         <v>19</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -1376,30 +1598,30 @@
         <v>42</v>
       </c>
       <c r="L38" s="2"/>
-      <c r="M38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="3" t="n">
-        <v>6E-009</v>
-      </c>
-      <c r="O38" s="3" t="n">
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <v>6E-9</v>
+      </c>
+      <c r="O38" s="3">
         <v>10000</v>
       </c>
-      <c r="P38" s="3" t="n">
+      <c r="P38" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:17">
       <c r="A39" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" t="s">
         <v>23</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -1412,27 +1634,27 @@
         <v>42</v>
       </c>
       <c r="L39" s="2"/>
-      <c r="M39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="3" t="n">
-        <v>3E-009</v>
-      </c>
-      <c r="O39" s="3" t="n">
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
+        <v>3E-9</v>
+      </c>
+      <c r="O39" s="3">
         <v>800</v>
       </c>
-      <c r="P39" s="3" t="n">
+      <c r="P39" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:17">
       <c r="A40" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>21</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -1445,30 +1667,30 @@
         <v>42</v>
       </c>
       <c r="L40" s="2"/>
-      <c r="M40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="3" t="n">
-        <v>2E-007</v>
-      </c>
-      <c r="O40" s="3" t="n">
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="3">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="O40" s="3">
         <v>9.9</v>
       </c>
-      <c r="P40" s="3" t="n">
+      <c r="P40" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:17">
       <c r="A41" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" t="s">
         <v>19</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -1481,30 +1703,30 @@
         <v>42</v>
       </c>
       <c r="L41" s="2"/>
-      <c r="M41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3" t="n">
-        <v>6E-008</v>
-      </c>
-      <c r="O41" s="3" t="n">
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>5.9999999999999995E-8</v>
+      </c>
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3" t="n">
+      <c r="P41" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:17">
       <c r="A42" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>21</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" t="s">
         <v>23</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -1517,30 +1739,30 @@
         <v>42</v>
       </c>
       <c r="L42" s="2"/>
-      <c r="M42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3" t="n">
-        <v>7E-009</v>
-      </c>
-      <c r="O42" s="3" t="n">
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>6.9999999999999998E-9</v>
+      </c>
+      <c r="O42" s="3">
         <v>1000</v>
       </c>
-      <c r="P42" s="3" t="n">
+      <c r="P42" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:17">
       <c r="A43" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" t="s">
         <v>18</v>
       </c>
       <c r="F43" s="11"/>
@@ -1554,25 +1776,25 @@
         <v>42</v>
       </c>
       <c r="L43" s="2"/>
-      <c r="M43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3" t="n">
-        <v>1E-007</v>
-      </c>
-      <c r="O43" s="3" t="n">
+      <c r="M43" s="2">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="O43" s="3">
         <v>5000</v>
       </c>
-      <c r="P43" s="3" t="n">
+      <c r="P43" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:17">
       <c r="A44" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:17">
       <c r="A45" s="5" t="s">
         <v>10</v>
       </c>
@@ -1582,7 +1804,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:17">
       <c r="A46" s="5" t="s">
         <v>10</v>
       </c>
@@ -1592,7 +1814,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:17">
       <c r="A47" s="5" t="s">
         <v>10</v>
       </c>
@@ -1602,11 +1824,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:17">
       <c r="A48" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>47</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -1619,30 +1841,30 @@
         <v>31</v>
       </c>
       <c r="L48" s="2"/>
-      <c r="M48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3" t="n">
+      <c r="M48" s="2">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>2</v>
       </c>
-      <c r="O48" s="3" t="n">
-        <v>5E-007</v>
-      </c>
-      <c r="Q48" s="0" t="s">
+      <c r="O48" s="3">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="Q48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:17">
       <c r="A49" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" t="s">
         <v>17</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" t="s">
         <v>22</v>
       </c>
       <c r="G49" s="1" t="s">
@@ -1655,30 +1877,30 @@
         <v>31</v>
       </c>
       <c r="L49" s="2"/>
-      <c r="M49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3" t="n">
+      <c r="M49" s="2">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
         <v>5</v>
       </c>
-      <c r="O49" s="3" t="n">
-        <v>5E-007</v>
-      </c>
-      <c r="Q49" s="0" t="s">
+      <c r="O49" s="3">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="Q49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:17">
       <c r="A50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" t="s">
         <v>18</v>
       </c>
       <c r="G50" s="1" t="s">
@@ -1691,31 +1913,34 @@
         <v>31</v>
       </c>
       <c r="L50" s="2"/>
-      <c r="M50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="3" t="n">
+      <c r="M50" s="2">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
         <v>5</v>
       </c>
-      <c r="O50" s="3" t="n">
-        <v>5E-007</v>
-      </c>
-      <c r="Q50" s="0" t="s">
+      <c r="O50" s="3">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="Q50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:17">
       <c r="A51" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" t="s">
         <v>47</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" t="s">
         <v>21</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" t="s">
         <v>22</v>
+      </c>
+      <c r="F51" t="s">
+        <v>26</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>24</v>
@@ -1727,31 +1952,37 @@
         <v>31</v>
       </c>
       <c r="L51" s="2"/>
-      <c r="M51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="3" t="n">
+      <c r="M51" s="2">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
         <v>4</v>
       </c>
-      <c r="O51" s="3" t="n">
-        <v>4E-006</v>
-      </c>
-      <c r="Q51" s="0" t="s">
+      <c r="O51" s="3">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="P51" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="Q51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:17">
       <c r="A52" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" t="s">
         <v>21</v>
       </c>
-      <c r="E52" s="0" t="s">
-        <v>18</v>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s">
+        <v>27</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>24</v>
@@ -1763,31 +1994,37 @@
         <v>31</v>
       </c>
       <c r="L52" s="2"/>
-      <c r="M52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="n">
+      <c r="M52" s="2">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>4</v>
       </c>
-      <c r="O52" s="3" t="n">
-        <v>4E-006</v>
-      </c>
-      <c r="Q52" s="0" t="s">
+      <c r="O52" s="3">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="P52" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="Q52" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:17">
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" s="0" t="s">
+      <c r="D53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" t="s">
         <v>18</v>
+      </c>
+      <c r="F53" t="s">
+        <v>26</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>24</v>
@@ -1799,24 +2036,107 @@
         <v>31</v>
       </c>
       <c r="L53" s="2"/>
-      <c r="M53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="3" t="n">
+      <c r="M53" s="2">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
         <v>4</v>
       </c>
-      <c r="O53" s="3" t="n">
-        <v>1E-006</v>
-      </c>
-      <c r="Q53" s="0" t="s">
+      <c r="O53" s="3">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="P53" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="Q53" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="P54" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3">
+        <v>4</v>
+      </c>
+      <c r="O55" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="P55" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/compact_measurement/library_qualification_tolerances.xlsx
+++ b/compact_measurement/library_qualification_tolerances.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-12" yWindow="5196" windowWidth="25980" windowHeight="5232" tabRatio="500"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="15360" windowHeight="13284" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="50">
   <si>
     <t>Compact_2012</t>
   </si>
@@ -168,7 +168,7 @@
     <t>1/s</t>
   </si>
   <si>
-    <t>todo</t>
+    <t>step V</t>
   </si>
 </sst>
 </file>
@@ -599,10 +599,10 @@
   <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="J22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
+      <selection pane="bottomRight" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -1396,15 +1396,15 @@
         <v>38</v>
       </c>
       <c r="L31" s="3">
-        <v>1.6000000000000001E-4</v>
+        <v>1.5999999999999999E-5</v>
       </c>
       <c r="M31" s="3">
         <f>L31/2</f>
-        <v>8.0000000000000007E-5</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="N31" s="3">
         <f>2*L31</f>
-        <v>3.2000000000000003E-4</v>
+        <v>3.1999999999999999E-5</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1810,6 +1810,9 @@
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
+      <c r="N46" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="O46" s="3" t="s">
         <v>45</v>
       </c>
@@ -1845,16 +1848,13 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>2</v>
+        <v>2E-3</v>
       </c>
       <c r="O48" s="3">
-        <v>4.9999999999999998E-7</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="5" t="s">
         <v>3</v>
       </c>
@@ -1881,16 +1881,13 @@
         <v>0</v>
       </c>
       <c r="N49" s="3">
-        <v>5</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O49" s="3">
-        <v>4.9999999999999998E-7</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
+        <v>3.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="5" t="s">
         <v>3</v>
       </c>
@@ -1917,16 +1914,13 @@
         <v>0</v>
       </c>
       <c r="N50" s="3">
-        <v>5</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O50" s="3">
-        <v>4.9999999999999998E-7</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
+        <v>3.9999999999999998E-7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="5" t="s">
         <v>3</v>
       </c>
@@ -1956,19 +1950,13 @@
         <v>0</v>
       </c>
       <c r="N51" s="3">
-        <v>4</v>
+        <v>2E-3</v>
       </c>
       <c r="O51" s="3">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="P51" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
+        <v>1.9999999999999999E-6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="5" t="s">
         <v>3</v>
       </c>
@@ -1998,19 +1986,13 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>4</v>
+        <v>2E-3</v>
       </c>
       <c r="O52" s="3">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="P52" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="5" t="s">
         <v>3</v>
       </c>
@@ -2040,19 +2022,13 @@
         <v>0</v>
       </c>
       <c r="N53" s="3">
-        <v>4</v>
+        <v>2E-3</v>
       </c>
       <c r="O53" s="3">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="P53" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17">
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="5" t="s">
         <v>3</v>
       </c>
@@ -2082,19 +2058,13 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>4</v>
+        <v>2E-3</v>
       </c>
       <c r="O54" s="3">
         <v>3.9999999999999998E-6</v>
       </c>
-      <c r="P54" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="5" t="s">
         <v>3</v>
       </c>
@@ -2121,16 +2091,10 @@
         <v>0</v>
       </c>
       <c r="N55" s="3">
-        <v>4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="O55" s="3">
-        <v>1E-4</v>
-      </c>
-      <c r="P55" s="3">
-        <v>1E-3</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>49</v>
+        <v>6.0000000000000002E-5</v>
       </c>
     </row>
   </sheetData>

--- a/compact_measurement/library_qualification_tolerances.xlsx
+++ b/compact_measurement/library_qualification_tolerances.xlsx
@@ -599,10 +599,10 @@
   <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="J22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M31" sqref="M31"/>
+      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -1273,8 +1273,8 @@
         <v>4.9999999999999998E-8</v>
       </c>
       <c r="M27" s="3">
-        <f>0.7*L27</f>
-        <v>3.4999999999999996E-8</v>
+        <f>0.5*L27</f>
+        <v>2.4999999999999999E-8</v>
       </c>
       <c r="N27" s="3">
         <f>1.4*L27</f>
@@ -1304,8 +1304,8 @@
         <v>1.4999999999999999E-7</v>
       </c>
       <c r="M28" s="3">
-        <f>0.7*L28</f>
-        <v>1.0499999999999999E-7</v>
+        <f t="shared" ref="M28:M30" si="2">0.5*L28</f>
+        <v>7.4999999999999997E-8</v>
       </c>
       <c r="N28" s="3">
         <f>1.4*L28</f>
@@ -1336,8 +1336,8 @@
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="M29" s="3">
-        <f>0.7*L29</f>
-        <v>3.4999999999999998E-7</v>
+        <f t="shared" si="2"/>
+        <v>2.4999999999999999E-7</v>
       </c>
       <c r="N29" s="3">
         <f>1.4*L29</f>
@@ -1368,8 +1368,8 @@
         <v>1.5E-6</v>
       </c>
       <c r="M30" s="3">
-        <f>0.7*L30</f>
-        <v>1.0499999999999999E-6</v>
+        <f t="shared" si="2"/>
+        <v>7.5000000000000002E-7</v>
       </c>
       <c r="N30" s="3">
         <f>1.4*L30</f>
@@ -1641,7 +1641,7 @@
         <v>3E-9</v>
       </c>
       <c r="O39" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="P39" s="3">
         <v>100000</v>

--- a/compact_measurement/library_qualification_tolerances.xlsx
+++ b/compact_measurement/library_qualification_tolerances.xlsx
@@ -599,10 +599,10 @@
   <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M34" sqref="M34"/>
+      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -1162,15 +1162,15 @@
         <v>14</v>
       </c>
       <c r="L22" s="3">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="M22" s="10">
         <f t="shared" si="0"/>
-        <v>13.65</v>
+        <v>13.6</v>
       </c>
       <c r="N22" s="10">
         <f t="shared" si="1"/>
-        <v>14.35</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="11" customFormat="1">
@@ -1198,15 +1198,15 @@
         <v>-14</v>
       </c>
       <c r="L23" s="3">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="M23" s="10">
         <f t="shared" si="0"/>
-        <v>-14.35</v>
+        <v>-14.4</v>
       </c>
       <c r="N23" s="10">
         <f t="shared" si="1"/>
-        <v>-13.65</v>
+        <v>-13.6</v>
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>

--- a/compact_measurement/library_qualification_tolerances.xlsx
+++ b/compact_measurement/library_qualification_tolerances.xlsx
@@ -599,10 +599,10 @@
   <dimension ref="A1:Q55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L26" sqref="L26"/>
+      <selection pane="bottomRight" activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2"/>
@@ -1851,7 +1851,7 @@
         <v>2E-3</v>
       </c>
       <c r="O48" s="3">
-        <v>0.02</v>
+        <v>3.9999999999999998E-7</v>
       </c>
     </row>
     <row r="49" spans="1:15">
